--- a/2021_cboc_signin_sheets/10October_2021_cboc_signin_sheet.xlsx
+++ b/2021_cboc_signin_sheets/10October_2021_cboc_signin_sheet.xlsx
@@ -738,8 +738,8 @@
     <col customWidth="1" max="19" min="19" width="2.5"/>
     <col customWidth="1" max="20" min="20" width="2.5"/>
     <col customWidth="1" max="21" min="21" width="2.5"/>
-    <col customWidth="1" max="22" min="22" width="4.5"/>
-    <col customWidth="1" max="23" min="23" width="4.5"/>
+    <col customWidth="1" max="22" min="22" width="2.5"/>
+    <col customWidth="1" max="23" min="23" width="2.5"/>
     <col customWidth="1" max="24" min="24" width="4.5"/>
     <col customWidth="1" max="25" min="25" width="4.5"/>
     <col customWidth="1" max="26" min="26" width="4.5"/>
@@ -853,12 +853,12 @@
         </is>
       </c>
       <c r="U2" s="8" t="n"/>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="V2" s="7" t="inlineStr">
         <is>
           <t>MON</t>
         </is>
       </c>
-      <c r="W2" s="6" t="n"/>
+      <c r="W2" s="8" t="n"/>
       <c r="X2" s="5" t="inlineStr">
         <is>
           <t>TUE</t>
@@ -930,10 +930,10 @@
         <v>10</v>
       </c>
       <c r="U3" s="8" t="n"/>
-      <c r="V3" s="5" t="n">
+      <c r="V3" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="W3" s="6" t="n"/>
+      <c r="W3" s="8" t="n"/>
       <c r="X3" s="5" t="n">
         <v>12</v>
       </c>
@@ -1053,12 +1053,12 @@
           <t>Time of Arrival</t>
         </is>
       </c>
-      <c r="V4" s="11" t="inlineStr">
+      <c r="V4" s="13" t="inlineStr">
         <is>
           <t>Tech</t>
         </is>
       </c>
-      <c r="W4" s="12" t="inlineStr">
+      <c r="W4" s="14" t="inlineStr">
         <is>
           <t>Time of Arrival</t>
         </is>
@@ -1162,8 +1162,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V5" s="16" t="n"/>
-      <c r="W5" s="17" t="n"/>
+      <c r="V5" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W5" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X5" s="16" t="n"/>
       <c r="Y5" s="17" t="n"/>
       <c r="Z5" s="16" t="n"/>
@@ -1231,8 +1239,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V6" s="21" t="n"/>
-      <c r="W6" s="22" t="n"/>
+      <c r="V6" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W6" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X6" s="21" t="n"/>
       <c r="Y6" s="22" t="n"/>
       <c r="Z6" s="21" t="n"/>
@@ -1264,8 +1280,8 @@
       <c r="S7" s="28" t="n"/>
       <c r="T7" s="27" t="n"/>
       <c r="U7" s="28" t="n"/>
-      <c r="V7" s="25" t="n"/>
-      <c r="W7" s="26" t="n"/>
+      <c r="V7" s="27" t="n"/>
+      <c r="W7" s="28" t="n"/>
       <c r="X7" s="25" t="n"/>
       <c r="Y7" s="26" t="n"/>
       <c r="Z7" s="25" t="n"/>
@@ -1333,8 +1349,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V8" s="16" t="n"/>
-      <c r="W8" s="17" t="n"/>
+      <c r="V8" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W8" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X8" s="16" t="n"/>
       <c r="Y8" s="17" t="n"/>
       <c r="Z8" s="16" t="n"/>
@@ -1402,8 +1426,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V9" s="21" t="n"/>
-      <c r="W9" s="22" t="n"/>
+      <c r="V9" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W9" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X9" s="21" t="n"/>
       <c r="Y9" s="22" t="n"/>
       <c r="Z9" s="21" t="n"/>
@@ -1435,8 +1467,8 @@
       <c r="S10" s="28" t="n"/>
       <c r="T10" s="27" t="n"/>
       <c r="U10" s="28" t="n"/>
-      <c r="V10" s="25" t="n"/>
-      <c r="W10" s="26" t="n"/>
+      <c r="V10" s="27" t="n"/>
+      <c r="W10" s="28" t="n"/>
       <c r="X10" s="25" t="n"/>
       <c r="Y10" s="26" t="n"/>
       <c r="Z10" s="25" t="n"/>
@@ -1504,8 +1536,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V11" s="16" t="n"/>
-      <c r="W11" s="17" t="n"/>
+      <c r="V11" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W11" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X11" s="16" t="n"/>
       <c r="Y11" s="17" t="n"/>
       <c r="Z11" s="16" t="n"/>
@@ -1573,8 +1613,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V12" s="21" t="n"/>
-      <c r="W12" s="22" t="n"/>
+      <c r="V12" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W12" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X12" s="21" t="n"/>
       <c r="Y12" s="22" t="n"/>
       <c r="Z12" s="21" t="n"/>
@@ -1606,8 +1654,8 @@
       <c r="S13" s="28" t="n"/>
       <c r="T13" s="27" t="n"/>
       <c r="U13" s="28" t="n"/>
-      <c r="V13" s="25" t="n"/>
-      <c r="W13" s="26" t="n"/>
+      <c r="V13" s="27" t="n"/>
+      <c r="W13" s="28" t="n"/>
       <c r="X13" s="25" t="n"/>
       <c r="Y13" s="26" t="n"/>
       <c r="Z13" s="25" t="n"/>
@@ -1675,8 +1723,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V14" s="16" t="n"/>
-      <c r="W14" s="17" t="n"/>
+      <c r="V14" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W14" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X14" s="16" t="n"/>
       <c r="Y14" s="17" t="n"/>
       <c r="Z14" s="16" t="n"/>
@@ -1744,8 +1800,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V15" s="21" t="n"/>
-      <c r="W15" s="22" t="n"/>
+      <c r="V15" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W15" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X15" s="21" t="n"/>
       <c r="Y15" s="22" t="n"/>
       <c r="Z15" s="21" t="n"/>
@@ -1777,8 +1841,8 @@
       <c r="S16" s="28" t="n"/>
       <c r="T16" s="27" t="n"/>
       <c r="U16" s="28" t="n"/>
-      <c r="V16" s="25" t="n"/>
-      <c r="W16" s="26" t="n"/>
+      <c r="V16" s="27" t="n"/>
+      <c r="W16" s="28" t="n"/>
       <c r="X16" s="25" t="n"/>
       <c r="Y16" s="26" t="n"/>
       <c r="Z16" s="25" t="n"/>
@@ -1846,8 +1910,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V17" s="16" t="n"/>
-      <c r="W17" s="17" t="n"/>
+      <c r="V17" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W17" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X17" s="16" t="n"/>
       <c r="Y17" s="17" t="n"/>
       <c r="Z17" s="16" t="n"/>
@@ -1915,8 +1987,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V18" s="21" t="n"/>
-      <c r="W18" s="22" t="n"/>
+      <c r="V18" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W18" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X18" s="21" t="n"/>
       <c r="Y18" s="22" t="n"/>
       <c r="Z18" s="21" t="n"/>
@@ -1948,8 +2028,8 @@
       <c r="S19" s="28" t="n"/>
       <c r="T19" s="27" t="n"/>
       <c r="U19" s="28" t="n"/>
-      <c r="V19" s="25" t="n"/>
-      <c r="W19" s="26" t="n"/>
+      <c r="V19" s="27" t="n"/>
+      <c r="W19" s="28" t="n"/>
       <c r="X19" s="25" t="n"/>
       <c r="Y19" s="26" t="n"/>
       <c r="Z19" s="25" t="n"/>
@@ -2017,8 +2097,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V20" s="16" t="n"/>
-      <c r="W20" s="17" t="n"/>
+      <c r="V20" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W20" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X20" s="16" t="n"/>
       <c r="Y20" s="17" t="n"/>
       <c r="Z20" s="16" t="n"/>
@@ -2086,8 +2174,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V21" s="21" t="n"/>
-      <c r="W21" s="22" t="n"/>
+      <c r="V21" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W21" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X21" s="21" t="n"/>
       <c r="Y21" s="22" t="n"/>
       <c r="Z21" s="21" t="n"/>
@@ -2119,8 +2215,8 @@
       <c r="S22" s="28" t="n"/>
       <c r="T22" s="27" t="n"/>
       <c r="U22" s="28" t="n"/>
-      <c r="V22" s="25" t="n"/>
-      <c r="W22" s="26" t="n"/>
+      <c r="V22" s="27" t="n"/>
+      <c r="W22" s="28" t="n"/>
       <c r="X22" s="25" t="n"/>
       <c r="Y22" s="26" t="n"/>
       <c r="Z22" s="25" t="n"/>
@@ -2188,8 +2284,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V23" s="16" t="n"/>
-      <c r="W23" s="17" t="n"/>
+      <c r="V23" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W23" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X23" s="16" t="n"/>
       <c r="Y23" s="17" t="n"/>
       <c r="Z23" s="16" t="n"/>
@@ -2257,8 +2361,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V24" s="21" t="n"/>
-      <c r="W24" s="22" t="n"/>
+      <c r="V24" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W24" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X24" s="21" t="n"/>
       <c r="Y24" s="22" t="n"/>
       <c r="Z24" s="21" t="n"/>
@@ -2290,8 +2402,8 @@
       <c r="S25" s="28" t="n"/>
       <c r="T25" s="27" t="n"/>
       <c r="U25" s="28" t="n"/>
-      <c r="V25" s="25" t="n"/>
-      <c r="W25" s="26" t="n"/>
+      <c r="V25" s="27" t="n"/>
+      <c r="W25" s="28" t="n"/>
       <c r="X25" s="25" t="n"/>
       <c r="Y25" s="26" t="n"/>
       <c r="Z25" s="25" t="n"/>
@@ -2359,8 +2471,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V26" s="16" t="n"/>
-      <c r="W26" s="17" t="n"/>
+      <c r="V26" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W26" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X26" s="16" t="n"/>
       <c r="Y26" s="17" t="n"/>
       <c r="Z26" s="16" t="n"/>
@@ -2428,8 +2548,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V27" s="29" t="n"/>
-      <c r="W27" s="30" t="n"/>
+      <c r="V27" s="31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W27" s="32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="X27" s="29" t="n"/>
       <c r="Y27" s="30" t="n"/>
       <c r="Z27" s="29" t="n"/>
